--- a/DateBase/orders/Nha Thu_2024-12-19.xlsx
+++ b/DateBase/orders/Nha Thu_2024-12-19.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03012101520815107914481519131260</v>
+        <v>03012101520815107914481519131261</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-12-19.xlsx
+++ b/DateBase/orders/Nha Thu_2024-12-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -610,12 +610,39 @@
         <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F21" t="str">
-        <v>1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L24"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +700,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03012101520815107914481519131261</v>
+        <v>030121015208151079144815191312612101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-12-19.xlsx
+++ b/DateBase/orders/Nha Thu_2024-12-19.xlsx
@@ -702,6 +702,9 @@
       <c r="G2" t="str">
         <v>030121015208151079144815191312612101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
